--- a/collections.xlsx
+++ b/collections.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>Tag No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,110 @@
   </si>
   <si>
     <t>Cabritte Horn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cabritte Horn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ofra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pfur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pfur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pstr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ssid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ssid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes, 20 R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pstr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,8 +255,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,229 +587,924 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>41483</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9.4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <v>41483</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6.6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1">
+        <v>41483</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>36.799999999999997</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1">
+        <v>41483</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>39.700000000000003</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1">
+        <v>41483</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6.7</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20.5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1">
+        <v>41483</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7.3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17.600000000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1">
+        <v>41483</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7.4</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>13.9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>8.4</v>
+      </c>
+      <c r="F9">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>8.4</v>
+      </c>
+      <c r="F10">
+        <v>5.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>7.8</v>
+      </c>
+      <c r="F11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>8.9</v>
+      </c>
+      <c r="F12">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>10.6</v>
+      </c>
+      <c r="F13">
+        <v>35.6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>9.1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F16">
+        <v>12.8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>8.5</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F19">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>8.9</v>
+      </c>
+      <c r="F20">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>26</v>
+      </c>
+      <c r="K20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>9.1</v>
+      </c>
+      <c r="F21">
+        <v>30.5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22">
+        <v>8.6</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>28</v>
+      </c>
+      <c r="K22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>8.6</v>
+      </c>
+      <c r="F23">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>7.1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24">
+        <v>36</v>
+      </c>
+      <c r="K24">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>8.6</v>
+      </c>
+      <c r="F25">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25">
+        <v>29</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>8.6</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F28">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29">
+        <v>33</v>
+      </c>
+      <c r="K29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F30">
+        <v>2.7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30">
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1">
+        <v>41484</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>12.2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>34</v>
+      </c>
+      <c r="K31">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
